--- a/EXCEL/pracSGGW.xlsx
+++ b/EXCEL/pracSGGW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Motyl_raport\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MagdaG\RepTemplates\Motyl_raport\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Nadane stopnie doktora</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">profesor </t>
+  </si>
+  <si>
+    <t>spoza SGGW</t>
+  </si>
+  <si>
+    <t>pracownicy i doktoranci</t>
+  </si>
+  <si>
+    <t>pracownicy</t>
   </si>
 </sst>
 </file>
@@ -167,13 +176,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +269,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -283,7 +291,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -294,13 +301,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10351870-505E-4524-A9CC-54C6C99D5CA4}" type="CELLRANGE">
+                    <a:fld id="{AD272309-36F1-4839-BF85-71C1E2304900}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -317,7 +323,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -329,13 +334,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DA4D68B-259E-465F-87FE-2E9C1B6A1633}" type="CELLRANGE">
+                    <a:fld id="{12B797EE-24C1-4D3A-9D24-B01BB586FE52}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -352,7 +356,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -364,13 +367,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E360976-B17B-4369-AED3-B91C69C679D9}" type="CELLRANGE">
+                    <a:fld id="{340AB407-9121-4F03-933F-C0C61E92F8E2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -387,7 +389,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -399,13 +400,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25B9E249-86D3-4AB3-9DAE-1DC087D93B97}" type="CELLRANGE">
+                    <a:fld id="{AF95259B-8604-4508-80CB-382CB08F5985}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -422,7 +422,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -434,13 +433,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E00186BC-6B55-437E-8E5A-D45B4148B126}" type="CELLRANGE">
+                    <a:fld id="{11FC4B67-042C-4DCF-A964-5CE9E7A778C1}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -457,7 +455,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -469,13 +466,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38BE5AEB-2240-4A55-9E08-3C8AE927F5AF}" type="CELLRANGE">
+                    <a:fld id="{E2D5693B-280F-4204-B226-760C3B700651}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -492,7 +488,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -504,13 +499,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C344CB3D-6831-4A09-A3C1-DC48B895904E}" type="CELLRANGE">
+                    <a:fld id="{C9003AD4-72F5-4586-B4CD-827A68F5B0D7}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -527,7 +521,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -539,13 +532,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25A71D9B-3002-49DE-9D42-39F49061158F}" type="CELLRANGE">
+                    <a:fld id="{F2318748-5C49-4A0C-9827-D2DF844B70F4}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -562,7 +554,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -574,13 +565,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFB78CC5-1C87-403E-9A14-86B3F14635C8}" type="CELLRANGE">
+                    <a:fld id="{75DFACDF-C752-47E6-9371-98D0B07768AE}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -597,7 +587,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -609,13 +598,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92D6ABC6-2631-47F7-BE87-9540F25BC348}" type="CELLRANGE">
+                    <a:fld id="{9C53C208-1D1B-4F3E-A66E-CADA02EA3A03}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -632,7 +620,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -677,7 +664,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -862,7 +848,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -885,7 +870,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -896,13 +880,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B02540C8-E934-4ADA-9CA1-60CF4D70B79A}" type="CELLRANGE">
+                    <a:fld id="{8DC28CE5-5A54-4EEC-8D2F-74C8FC2705F2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -919,7 +902,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -931,13 +913,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D046CED-9283-4B86-A137-0FB566987C02}" type="CELLRANGE">
+                    <a:fld id="{6758B8F6-8EE9-4E4B-85DE-9DB3608F3654}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -954,7 +935,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -966,13 +946,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE64F083-5B1F-4E69-8B28-4E1A5515237B}" type="CELLRANGE">
+                    <a:fld id="{26055C9F-1990-4874-929B-4690497BFF3F}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -989,7 +968,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1001,13 +979,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BA66D99-A1E0-4E63-8084-73DC887B48B6}" type="CELLRANGE">
+                    <a:fld id="{B88E2901-9D6E-4A98-A7CA-C1D098FE65E1}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1024,7 +1001,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1036,13 +1012,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C976E504-87FE-42BD-AC42-569B5AF0F25F}" type="CELLRANGE">
+                    <a:fld id="{5D885E8B-9D20-48DE-B4F4-91AFF5FAAAB3}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1059,7 +1034,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1071,13 +1045,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53EEFACC-9360-49FB-B183-3BF77CC32B22}" type="CELLRANGE">
+                    <a:fld id="{5F9D27D7-F91A-47EA-B36F-A238B4289773}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1094,7 +1067,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1106,13 +1078,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18BBB92F-E824-4535-90A8-C6071C8354AF}" type="CELLRANGE">
+                    <a:fld id="{5A75DC16-D0C1-4CE0-BD9D-3704CF7D0689}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1129,7 +1100,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1141,13 +1111,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFF7116E-98FB-4892-8761-6A6D60107D05}" type="CELLRANGE">
+                    <a:fld id="{6169E908-A0C3-41CA-BE13-1AADE83ECDE1}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1164,7 +1133,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1176,13 +1144,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1332E716-AE46-44DA-B7D3-848D93BF1DB1}" type="CELLRANGE">
+                    <a:fld id="{50455013-CB53-4395-A8B9-66364D969F36}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1199,7 +1166,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1211,13 +1177,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A770ACD3-E252-41A8-A7F8-9296AE49AA75}" type="CELLRANGE">
+                    <a:fld id="{909A1C53-0000-4D4B-9FEE-8B1DDED26D0C}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1234,7 +1199,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1282,7 +1246,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1564,7 +1527,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1695,7 +1657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3ACC5DD-BE03-44C1-9DC9-E31A8AAD567F}" type="CELLRANGE">
+                    <a:fld id="{DCD29B85-2488-4132-9970-D62730369BB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1729,7 +1691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{478DE8A7-A4CB-4A1E-91AE-9D7BB6D9A079}" type="CELLRANGE">
+                    <a:fld id="{6F92DAF7-1F94-4959-B3D9-111716FA3C08}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1764,7 +1726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6E7F845-3740-48B2-BEB9-4DBF609B494B}" type="CELLRANGE">
+                    <a:fld id="{9E8D80E3-1256-438A-BA95-39F7005248D9}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1799,7 +1761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7C5F0BE-3CBF-485F-934E-8DC9E7FF3201}" type="CELLRANGE">
+                    <a:fld id="{26C03C6D-CC04-4086-B813-21ED390F0606}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1834,7 +1796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{479E546D-8003-4BFE-BC06-0273B3B301C8}" type="CELLRANGE">
+                    <a:fld id="{EB63F807-6D1D-4147-A906-35162061FD68}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1869,7 +1831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67E0305F-019A-4546-AF7D-7DCCCB168875}" type="CELLRANGE">
+                    <a:fld id="{17DA0D01-FF6B-4616-A471-3E7AF93EBEB2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1904,7 +1866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16DB99F8-1B18-4136-9993-C43EFA19C315}" type="CELLRANGE">
+                    <a:fld id="{817223B7-B70F-4C57-AF0E-039EA126EB79}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1939,7 +1901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16DFB85F-2D4C-4F19-B89C-0842415386CA}" type="CELLRANGE">
+                    <a:fld id="{D88FD975-0110-41BA-B1C3-DAD0C4FCA57D}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1974,7 +1936,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2EB88B5-1078-44BC-85E9-C7B76FEB7437}" type="CELLRANGE">
+                    <a:fld id="{914F1D74-438C-497B-BAB4-C746ED61A7AF}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2009,7 +1971,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C2187FF-57E7-4DA0-962E-15146E933D91}" type="CELLRANGE">
+                    <a:fld id="{ECB5A6DC-4EE5-4ECF-9323-7D0485438D47}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2044,7 +2006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{999F498B-0F40-4D6D-8628-8F5E2C564F50}" type="CELLRANGE">
+                    <a:fld id="{9D24EFD9-50CE-473D-A717-89CA16D8C6AC}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2292,7 +2254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B065B480-2AA0-4A5C-BF98-3F7D35106E94}" type="CELLRANGE">
+                    <a:fld id="{3F8BEEBA-52A7-49FC-9222-F53B27A0CA2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2326,7 +2288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1E4B17A-59CE-4D74-B7A8-FCA9F7197941}" type="CELLRANGE">
+                    <a:fld id="{56355629-C161-4906-8291-9656C8D1A9D9}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2361,7 +2323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0AD70A1-48B9-4548-B2AD-3354C67D8DF2}" type="CELLRANGE">
+                    <a:fld id="{5C2ED546-279D-49E5-9DEE-2B7D4D403D09}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2396,7 +2358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABBB9ADD-92B9-48CC-9795-A9B2C06FA581}" type="CELLRANGE">
+                    <a:fld id="{DB4C47CE-2D85-42F6-915C-78B416D48BB6}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2431,7 +2393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA87C511-BC4F-4A62-84B3-0A5E76694E82}" type="CELLRANGE">
+                    <a:fld id="{52648AD8-BEC8-4B07-A602-F027DB7A3497}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2466,7 +2428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8589140C-6BD7-4844-A32D-7E96AF310036}" type="CELLRANGE">
+                    <a:fld id="{27CC8FA1-0856-443E-9313-A66440147781}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2501,7 +2463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA510DDE-80C0-43ED-AAE1-A7F6AB532DF4}" type="CELLRANGE">
+                    <a:fld id="{B9F3DE94-832B-4659-A088-08E710D5A3A3}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2536,7 +2498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45DFEC81-F02D-426D-AAF0-3BD88AC5B687}" type="CELLRANGE">
+                    <a:fld id="{BED40FE1-E5FC-426E-8850-1FFCB6775DE2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2571,7 +2533,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63812C54-E1BA-4D54-9E7C-14777E3B31CD}" type="CELLRANGE">
+                    <a:fld id="{6083A67B-3DBF-4E7D-B237-35B35374804B}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2606,7 +2568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EDF932D-391E-48D6-9D4D-7BB008BF48C2}" type="CELLRANGE">
+                    <a:fld id="{ED11A4AB-D6D4-4A90-8294-871120631B54}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2641,7 +2603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4E5D3F5-8ED3-468A-B4E3-FCFEC541EAF7}" type="CELLRANGE">
+                    <a:fld id="{CF1301CD-7B55-4FFA-81D6-8885C04BFDFB}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3117,7 +3079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CDCE6DA-FA42-44DD-9AD4-A57C539E7A22}" type="CELLRANGE">
+                    <a:fld id="{43C1AFF7-6D98-40EC-9887-0F5D711DB11C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3151,7 +3113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{703622D7-B352-4851-A745-40DBFD969323}" type="CELLRANGE">
+                    <a:fld id="{CA077D52-E64E-4620-AC85-7D95E92FDD51}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3186,7 +3148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A84B4CD-639A-4509-9F5F-46CD0ABEBD0E}" type="CELLRANGE">
+                    <a:fld id="{3CFB4D76-B866-4C42-87C7-79AD7A1FA60F}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3221,7 +3183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AB983F4-9124-42A7-82E5-A98ACAD09DF8}" type="CELLRANGE">
+                    <a:fld id="{EF771141-E1BD-4554-ADFF-B2316987B1D7}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3256,7 +3218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CE72170-0CE1-491B-9DF3-0D91693B272F}" type="CELLRANGE">
+                    <a:fld id="{2F4230F6-9BF9-4585-9052-B98C91E54D7E}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3291,7 +3253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{156CD8CA-F87B-427B-BC5E-AF14B6090EF0}" type="CELLRANGE">
+                    <a:fld id="{C1C3D4FC-2494-4778-8AEE-717B4D2C536E}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3326,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D1A323A-4993-4AC1-BA22-1D660E332BAB}" type="CELLRANGE">
+                    <a:fld id="{71064579-8303-455B-B4C3-35A12358C0B2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3361,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1892D122-D58B-49A2-A4EB-5DC1156D5423}" type="CELLRANGE">
+                    <a:fld id="{6E1394A3-68E4-4FB8-B4AC-71B7258FCB72}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3396,7 +3358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6BFF326-09C8-4221-ADCF-1D8F05C6D2C0}" type="CELLRANGE">
+                    <a:fld id="{C03AD0A4-037D-4C52-A490-812F1B3C5AD7}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3431,7 +3393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63AE4BA8-86F9-4ED4-9C97-F1B64328925E}" type="CELLRANGE">
+                    <a:fld id="{5E424FBD-DDA9-41FF-BD3B-6460802685FB}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3466,7 +3428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0666283E-1340-4DF5-97AD-EC09D779FF52}" type="CELLRANGE">
+                    <a:fld id="{137D5ADE-7749-4510-9150-C00A00A59902}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3714,7 +3676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00FCCB91-BD7E-4463-A610-446BD7781977}" type="CELLRANGE">
+                    <a:fld id="{2085483C-9E5E-4D72-A23A-63875B970392}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3748,7 +3710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{048563E0-9A6B-482D-9963-67E8AEF0DAA3}" type="CELLRANGE">
+                    <a:fld id="{2E65C57F-3FDA-44A3-9CF3-2A8DCC6BEEED}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3783,7 +3745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08C97A69-5E0B-43E4-BC1A-2C110388E30F}" type="CELLRANGE">
+                    <a:fld id="{57921C55-17D9-4F63-99DF-46A39D4AA655}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3818,7 +3780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BFD1D17-2B81-437C-B2DD-D2C83ADF8849}" type="CELLRANGE">
+                    <a:fld id="{549B006E-F022-4092-9A26-44E8E7F582A5}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3853,7 +3815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54042CAA-09EB-4F8E-8184-BFFFCD917936}" type="CELLRANGE">
+                    <a:fld id="{8EED7E2F-17D7-4BE0-B914-51A70F75B42E}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3888,7 +3850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2668C1CE-FB40-404A-A363-582DD084A8DC}" type="CELLRANGE">
+                    <a:fld id="{AAEA7C9C-8787-4273-AB7A-C6C2357890E4}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3923,7 +3885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{038A7591-2C13-492A-AE8D-2A9F12DFAAB5}" type="CELLRANGE">
+                    <a:fld id="{C0561627-8AAA-4AB4-B8AA-527C6C767831}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3958,7 +3920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79304298-51B1-4948-AFFE-3514257C79FF}" type="CELLRANGE">
+                    <a:fld id="{45471A0F-1D2A-400F-9925-DD7E18E4F6D9}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -3993,7 +3955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F69630D-AE35-4265-BF3C-A2B2658CB95D}" type="CELLRANGE">
+                    <a:fld id="{A865506A-F5C8-4F98-B3E4-9AA32AA020A7}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4028,7 +3990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1773159F-BDD8-4CD7-9D59-3895641441AF}" type="CELLRANGE">
+                    <a:fld id="{58F334A6-6AC9-42D8-A739-62AE2F6F440D}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4063,7 +4025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07E0E796-302B-4A9B-939B-FE2B01E30021}" type="CELLRANGE">
+                    <a:fld id="{934AB05E-93E9-4482-B871-118DB861C9C2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4536,7 +4498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4D5A7B2-B94D-40DE-B8E0-8178BCBBFB25}" type="CELLRANGE">
+                    <a:fld id="{E5B8BEA0-2507-412C-855E-D2973F04FE57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4570,7 +4532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1372FD0-0D45-4363-AE62-2FB097A0BF4D}" type="CELLRANGE">
+                    <a:fld id="{60689C6B-D8EB-4FCC-95ED-733555FC879F}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4605,7 +4567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BA9C52B-EC3E-47F9-A863-F7AC7A5CFCA0}" type="CELLRANGE">
+                    <a:fld id="{997CD674-F445-4020-AC54-E14081A35852}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4640,7 +4602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1F041D5-60F6-4444-8CD5-6CCA5DE9F856}" type="CELLRANGE">
+                    <a:fld id="{279BE8E7-C417-4BA1-981D-5D11A7C13643}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4675,7 +4637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B06F7F4B-044E-430B-B43B-C48C0A3A961B}" type="CELLRANGE">
+                    <a:fld id="{65014AD8-5713-4020-91FA-4C0A17E6755F}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4710,7 +4672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{457D24EE-7A9D-4034-B56E-1A588463AD08}" type="CELLRANGE">
+                    <a:fld id="{0CB2F1DD-8DBB-43E5-BEFD-7806D4DDAB5A}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4745,7 +4707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{312C1E70-A914-4ABB-BCD8-8D18A578FDC9}" type="CELLRANGE">
+                    <a:fld id="{05530C12-B0BF-4312-8457-7B7134055781}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4780,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E433249-49D3-4C43-AE88-03C5CBAA0181}" type="CELLRANGE">
+                    <a:fld id="{CDE76E3F-BB60-4B38-B981-ED93995FA604}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4815,7 +4777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{550467B5-649B-4C6D-89A0-C4DF9237022B}" type="CELLRANGE">
+                    <a:fld id="{41A1337C-898F-410B-8300-FB887BF9F5CA}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4850,7 +4812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B81A4B6-E258-4354-B084-6C26D1C8BBD2}" type="CELLRANGE">
+                    <a:fld id="{35371EA4-E691-408D-92FB-F933C1FD6324}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -4885,7 +4847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{688A26F8-0CC5-48FB-BFD7-DB3F92909DE4}" type="CELLRANGE">
+                    <a:fld id="{BFDF8BE9-BC0D-4E30-9332-6E0978B3C23B}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5133,7 +5095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A92965A9-18B9-43CE-A63E-833DA0EF6130}" type="CELLRANGE">
+                    <a:fld id="{4CFBA7DD-DD8B-4BC6-94A7-A3EB37E36973}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5167,7 +5129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C91741D7-4829-4A66-A53C-BC82EF0DE4DD}" type="CELLRANGE">
+                    <a:fld id="{E25B885E-ECA5-4933-B5EF-B0A7D38EB22C}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5202,7 +5164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0267779-3A47-49D6-8964-78F70B180DC3}" type="CELLRANGE">
+                    <a:fld id="{9CC6937E-816D-4D09-A693-2A2D88C7C64E}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5247,7 +5209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88C66543-A1B3-4270-A972-E0C39651F0DE}" type="CELLRANGE">
+                    <a:fld id="{F4E6764B-C742-4E40-AACB-EA072F6B9428}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5282,7 +5244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00D6A3E5-3AB5-4D1A-80CF-1C7BA4550527}" type="CELLRANGE">
+                    <a:fld id="{ED90956A-FC51-411C-B0F7-00FE97A940C3}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5317,7 +5279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1475179A-895A-4592-B554-21BD277BB2DF}" type="CELLRANGE">
+                    <a:fld id="{27C206B9-5776-4D4D-AE7B-02784A4C5730}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5352,7 +5314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF644EA9-0ED4-4A6F-B7CF-298BC160510E}" type="CELLRANGE">
+                    <a:fld id="{DBD9AF5C-514E-4D97-9350-F0537D94FCEB}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5387,7 +5349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B50F83B-C204-4C32-86AA-56D546B2EDBF}" type="CELLRANGE">
+                    <a:fld id="{369A38B5-FA1F-4C0C-A227-7966B2762834}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5422,7 +5384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6781AF0C-6485-49C6-B24C-B6C85D0720D3}" type="CELLRANGE">
+                    <a:fld id="{D3D1E0B2-42BF-480C-8988-3C101664765B}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5457,7 +5419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12FE3C7B-BA6B-4090-B191-99D66A7DA94B}" type="CELLRANGE">
+                    <a:fld id="{948CB96D-3FC5-42DF-BFF9-4184C7E32431}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -5882,63 +5844,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Doktor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5954,7 +5860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy i doktoranci</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6136,7 +6042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6436,7 +6342,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82761968810916176"/>
+          <c:y val="6.0575777777777805E-2"/>
+          <c:w val="0.14762397660818713"/>
+          <c:h val="0.26483155555555554"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6518,63 +6433,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>habilitacja</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6590,7 +6449,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6772,7 +6631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7072,7 +6931,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87678001949317741"/>
+          <c:y val="2.8917555555555523E-2"/>
+          <c:w val="0.11579307992202729"/>
+          <c:h val="0.12936488888888889"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7154,63 +7022,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>profesor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7226,7 +7038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7408,7 +7220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7435,16 +7247,18 @@
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-066A-494D-9EE2-E4E73797FA47}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="82000"/>
+                </a:sysClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -7720,7 +7534,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87059093567251467"/>
+          <c:y val="4.867311111111107E-2"/>
+          <c:w val="0.11579307992202729"/>
+          <c:h val="0.12936488888888889"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7848,7 +7671,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -7871,7 +7693,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -7882,13 +7703,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C877E982-7E0A-400E-A1AA-4C342E557CCA}" type="CELLRANGE">
+                    <a:fld id="{09191290-F490-4EF5-9C07-97B3E2839FE9}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -7905,7 +7725,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7917,13 +7736,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37EC7980-0FC7-4699-B403-42C100C57903}" type="CELLRANGE">
+                    <a:fld id="{5E1E94AB-E986-4DC7-9ED0-1893ACD61682}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -7940,7 +7758,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7952,13 +7769,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD87F313-4BA5-46D2-9F01-9D2FE9E385CB}" type="CELLRANGE">
+                    <a:fld id="{4236E698-51D1-4C05-AB60-CD6B3FDAD349}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -7975,7 +7791,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7987,13 +7802,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BF79CD0-E639-4B7A-99A4-D7E8C5BAE9A7}" type="CELLRANGE">
+                    <a:fld id="{3063C295-8FFD-4C43-89D7-318D978C4665}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8010,7 +7824,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8022,13 +7835,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD8E4E4D-D433-4AF5-8A77-505B787617B9}" type="CELLRANGE">
+                    <a:fld id="{8F7AA002-DBF5-4F50-91F2-7D5C18C2B0F0}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8045,7 +7857,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8057,13 +7868,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1D37185-46C0-4CF8-AC31-1682A7F471AB}" type="CELLRANGE">
+                    <a:fld id="{C805B727-A89D-4595-8443-2C6CB1C0217E}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8080,7 +7890,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8092,13 +7901,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53303E98-D9FD-45D2-A3B8-83A3C2629339}" type="CELLRANGE">
+                    <a:fld id="{54BBCF4D-8910-4894-966F-6AC5A7865ACE}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8115,7 +7923,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8127,13 +7934,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27016949-5AB5-4BB7-BCD9-C6428B1A0BB1}" type="CELLRANGE">
+                    <a:fld id="{1132FDB2-5181-4FCC-8312-F8B1AF67A9ED}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8150,7 +7956,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8162,13 +7967,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA75E1F2-D9F4-476F-964B-8DCF81500F62}" type="CELLRANGE">
+                    <a:fld id="{19E114C0-1647-4A50-A8F9-BFF3C2D22C92}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8185,7 +7989,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8197,13 +8000,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A456C6C8-4A4F-4226-86FA-2F3CA46A4CA1}" type="CELLRANGE">
+                    <a:fld id="{FDE42849-CEB8-46A1-92CF-8D641B2A695C}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8220,7 +8022,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8265,7 +8066,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8450,7 +8250,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8473,7 +8272,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -8484,13 +8282,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F6A8AA4-10A2-46DC-9D32-C7F621C468D9}" type="CELLRANGE">
+                    <a:fld id="{A024E349-2178-4804-822A-3B8DA7D09887}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8507,7 +8304,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8519,13 +8315,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{230B4350-4BAB-43B9-8AB2-EA2D055AE063}" type="CELLRANGE">
+                    <a:fld id="{0D635CCC-7B55-4BA0-99E5-D2E15B3D2E6B}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8542,7 +8337,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8554,13 +8348,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71A3343B-FC65-4CFE-944F-A39BC3006836}" type="CELLRANGE">
+                    <a:fld id="{F1BDAF78-A76A-4AED-820B-51586F10AC1A}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8577,7 +8370,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8589,13 +8381,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE36DE6F-9166-4200-9F53-FC1D3ADC2BAB}" type="CELLRANGE">
+                    <a:fld id="{0D5E211F-72CD-449B-8F87-C5CB00D91EEE}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8612,7 +8403,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8624,13 +8414,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{653C0935-7B38-4305-9CA2-DA02E917148A}" type="CELLRANGE">
+                    <a:fld id="{C1DA1B80-17DE-4C88-80DA-476FA5AB8704}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8647,7 +8436,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8659,13 +8447,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F879D622-77FF-46FE-99E0-0CA1EE8FFFE1}" type="CELLRANGE">
+                    <a:fld id="{FB99EE6C-5B49-4218-90EE-60A466B6D537}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8682,7 +8469,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8694,13 +8480,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10EAC1BA-97BC-49C6-A8F0-4438E47033D2}" type="CELLRANGE">
+                    <a:fld id="{04AB3DE8-E9AA-4BC2-BDAA-E3879AA48073}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8717,7 +8502,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8729,13 +8513,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87B9E117-3E86-46AF-8960-636F40AA06D1}" type="CELLRANGE">
+                    <a:fld id="{004A8202-FFB3-4B38-8EE3-DE74715B5887}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8752,7 +8535,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8764,13 +8546,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1984DCD-9550-487B-A5DD-B5EBBDB123CD}" type="CELLRANGE">
+                    <a:fld id="{DD583C86-2F5D-4284-A525-E10504B4B8E2}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8787,7 +8568,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8799,13 +8579,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92201EE9-6A89-4E0C-B1FF-EE15FA69E882}" type="CELLRANGE">
+                    <a:fld id="{2F643481-2CAC-4B80-8317-D7494FEE8A26}" type="CELLRANGE">
                       <a:rPr lang="pl-PL"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -8822,7 +8601,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8870,7 +8648,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9152,7 +8929,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10638,7 +10414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy i doktoranci</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10752,7 +10528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11140,7 +10916,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11254,7 +11030,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11642,7 +11418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>na SGGW</c:v>
+                  <c:v>pracownicy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11756,7 +11532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poza SGGW</c:v>
+                  <c:v>spoza SGGW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21727,15 +21503,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238123</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>134923</xdr:colOff>
+      <xdr:colOff>401623</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>108975</xdr:rowOff>
+      <xdr:rowOff>175650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24121,18 +23897,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -24416,28 +24192,28 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -24779,28 +24555,28 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="M32" s="2">
         <v>2007</v>
       </c>
@@ -25524,17 +25300,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25547,7 +25323,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25570,22 +25346,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -25851,7 +25627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -26019,8 +25795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="R117" sqref="R117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
